--- a/Data - object localization/OccupancyGridExperiments/V3_LabOccGrid.xlsx
+++ b/Data - object localization/OccupancyGridExperiments/V3_LabOccGrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Autobots\autonomous_robotics_SLAM\Data - object localization\OccupancyGridExperiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F62EA1-9D3E-4D38-8939-EC27607A515B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16470DD6-BBAB-4B00-9474-CF569D8CBA22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="10035" activeTab="6" xr2:uid="{D718150C-CDB7-49D6-B2DC-FE20FD44D104}"/>
   </bookViews>
@@ -28,6 +28,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,7 +400,7 @@
   <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AT23" sqref="AT23"/>
+      <selection sqref="A1:AO35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -3518,10 +3522,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="1">
         <v>0</v>
@@ -3646,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="1">
         <v>0</v>
@@ -3774,7 +3778,7 @@
         <v>15</v>
       </c>
       <c r="AN27" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="1">
         <v>100</v>
@@ -3896,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AN28" s="1">
         <v>15</v>
@@ -4021,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="AM29" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="1">
         <v>15</v>
@@ -4146,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AM30" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="1">
         <v>15</v>
@@ -4271,10 +4275,10 @@
         <v>0</v>
       </c>
       <c r="AM31" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO31" s="1">
         <v>100</v>
@@ -4799,8 +4803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07C758F-5AA5-4A3B-AC76-66BA47FB53B8}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT15" sqref="AT15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:AO35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5011,31 +5015,31 @@
         <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI2" s="1">
         <v>0</v>
@@ -5130,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA3" s="1">
         <v>0</v>
@@ -5163,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -5252,10 +5256,10 @@
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
@@ -5294,10 +5298,10 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -5618,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
@@ -5743,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -5868,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -6118,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -6243,10 +6247,10 @@
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -6368,10 +6372,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
@@ -6428,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>100</v>
@@ -6493,13 +6497,13 @@
         <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
@@ -6553,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>100</v>
@@ -6618,13 +6622,13 @@
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>15</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W15" s="1">
         <v>0</v>
@@ -6636,10 +6640,10 @@
         <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1">
         <v>0</v>
@@ -6678,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>100</v>
@@ -6746,13 +6750,13 @@
         <v>0</v>
       </c>
       <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
         <v>30</v>
       </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X16" s="1">
         <v>0</v>
@@ -6764,13 +6768,13 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB16" s="1">
         <v>15</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD16" s="1">
         <v>0</v>
@@ -6800,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="AM16" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="1">
         <v>0</v>
@@ -6871,13 +6875,13 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X17" s="1">
         <v>0</v>
@@ -6922,10 +6926,10 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="1">
         <v>0</v>
@@ -6999,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -7050,10 +7054,10 @@
         <v>0</v>
       </c>
       <c r="AM18" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN18" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO18" s="1">
         <v>100</v>
@@ -7127,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
@@ -7294,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -7413,10 +7417,10 @@
         <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1">
         <v>0</v>
@@ -7535,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="1">
         <v>0</v>
@@ -7797,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -7922,10 +7926,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="1">
         <v>0</v>
@@ -8050,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="1">
         <v>0</v>
@@ -8178,7 +8182,7 @@
         <v>15</v>
       </c>
       <c r="AN27" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="1">
         <v>100</v>
@@ -8300,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AN28" s="1">
         <v>15</v>
@@ -8425,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="AM29" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="1">
         <v>15</v>
@@ -8550,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="AM30" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="1">
         <v>15</v>
@@ -8675,10 +8679,10 @@
         <v>0</v>
       </c>
       <c r="AM31" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO31" s="1">
         <v>100</v>
@@ -9203,8 +9207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB14F387-1EC3-4690-8446-BA75539981C7}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ17" sqref="AQ17"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:AO35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9403,7 +9407,7 @@
         <v>15</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
@@ -9415,31 +9419,31 @@
         <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI2" s="1">
         <v>0</v>
@@ -9519,13 +9523,13 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
         <v>15</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V3" s="1">
         <v>0</v>
@@ -9540,13 +9544,13 @@
         <v>15</v>
       </c>
       <c r="Z3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AA3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AB3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AC3" s="1">
         <v>15</v>
@@ -9567,13 +9571,13 @@
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -9656,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X4" s="1">
         <v>15</v>
@@ -9677,10 +9681,10 @@
         <v>15</v>
       </c>
       <c r="AD4" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AE4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
         <v>0</v>
@@ -9698,10 +9702,10 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -9778,13 +9782,13 @@
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -9805,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AF5" s="1">
         <v>0</v>
@@ -9900,19 +9904,19 @@
         <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
@@ -9933,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="1">
         <v>0</v>
@@ -10025,13 +10029,13 @@
         <v>15</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -10147,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -10272,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -10433,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -10522,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -10558,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG11" s="1">
         <v>0</v>
@@ -10644,13 +10648,13 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -10772,10 +10776,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="U13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
@@ -10805,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF13" s="1">
         <v>0</v>
@@ -10832,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>100</v>
@@ -10897,13 +10901,13 @@
         <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="U14" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
@@ -10930,7 +10934,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF14" s="1">
         <v>0</v>
@@ -10957,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>100</v>
@@ -11022,16 +11026,16 @@
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="V15" s="1">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X15" s="1">
         <v>0</v>
@@ -11040,10 +11044,10 @@
         <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1">
         <v>0</v>
@@ -11082,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>100</v>
@@ -11150,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="V16" s="1">
         <v>45</v>
       </c>
       <c r="W16" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="X16" s="1">
         <v>0</v>
@@ -11168,13 +11172,13 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB16" s="1">
         <v>15</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD16" s="1">
         <v>0</v>
@@ -11204,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="AM16" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="1">
         <v>0</v>
@@ -11275,16 +11279,16 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -11326,10 +11330,10 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="1">
         <v>0</v>
@@ -11403,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -11454,10 +11458,10 @@
         <v>0</v>
       </c>
       <c r="AM18" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN18" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO18" s="1">
         <v>100</v>
@@ -11531,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
@@ -11698,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -11817,10 +11821,10 @@
         <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1">
         <v>0</v>
@@ -11939,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="1">
         <v>0</v>
@@ -12201,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -12326,10 +12330,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="1">
         <v>0</v>
@@ -12454,7 +12458,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="1">
         <v>0</v>
@@ -12582,7 +12586,7 @@
         <v>15</v>
       </c>
       <c r="AN27" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="1">
         <v>100</v>
@@ -12704,7 +12708,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AN28" s="1">
         <v>15</v>
@@ -12829,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="AM29" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="1">
         <v>15</v>
@@ -12954,7 +12958,7 @@
         <v>0</v>
       </c>
       <c r="AM30" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="1">
         <v>15</v>
@@ -13079,10 +13083,10 @@
         <v>0</v>
       </c>
       <c r="AM31" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO31" s="1">
         <v>100</v>
@@ -13608,7 +13612,7 @@
   <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR17" sqref="AR17"/>
+      <selection sqref="A1:AO35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13756,28 +13760,28 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
@@ -13807,7 +13811,7 @@
         <v>15</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
@@ -13819,31 +13823,31 @@
         <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI2" s="1">
         <v>0</v>
@@ -13878,38 +13882,38 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1">
         <v>30</v>
       </c>
-      <c r="J3" s="1">
-        <v>45</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
@@ -13923,13 +13927,13 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
         <v>15</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V3" s="1">
         <v>0</v>
@@ -13944,13 +13948,13 @@
         <v>15</v>
       </c>
       <c r="Z3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AA3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AB3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AC3" s="1">
         <v>15</v>
@@ -13971,13 +13975,13 @@
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -14003,40 +14007,40 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1">
         <v>15</v>
       </c>
       <c r="H4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -14060,7 +14064,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X4" s="1">
         <v>15</v>
@@ -14081,10 +14085,10 @@
         <v>15</v>
       </c>
       <c r="AD4" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AE4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
         <v>0</v>
@@ -14102,10 +14106,10 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -14131,13 +14135,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -14155,16 +14159,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
@@ -14182,13 +14186,13 @@
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -14209,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AF5" s="1">
         <v>0</v>
@@ -14253,10 +14257,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -14286,7 +14290,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -14304,19 +14308,19 @@
         <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
@@ -14337,7 +14341,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="1">
         <v>0</v>
@@ -14375,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>15</v>
@@ -14411,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -14429,13 +14433,13 @@
         <v>15</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -14497,13 +14501,13 @@
         <v>100</v>
       </c>
       <c r="B8" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -14551,7 +14555,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -14622,10 +14626,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -14661,7 +14665,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -14676,7 +14680,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -14747,10 +14751,10 @@
         <v>100</v>
       </c>
       <c r="B10" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -14786,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -14837,7 +14841,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -14872,11 +14876,11 @@
         <v>100</v>
       </c>
       <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
         <v>30</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
@@ -14911,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
@@ -14926,7 +14930,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -14962,7 +14966,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG11" s="1">
         <v>0</v>
@@ -14997,10 +15001,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -15036,7 +15040,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>0</v>
@@ -15048,13 +15052,13 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -15122,10 +15126,10 @@
         <v>100</v>
       </c>
       <c r="B13" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -15176,10 +15180,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="U13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
@@ -15209,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF13" s="1">
         <v>0</v>
@@ -15236,7 +15240,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>100</v>
@@ -15247,67 +15251,67 @@
         <v>100</v>
       </c>
       <c r="B14" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>15</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>15</v>
+      </c>
+      <c r="U14" s="1">
         <v>30</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>15</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
-        <v>45</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
@@ -15334,7 +15338,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF14" s="1">
         <v>0</v>
@@ -15361,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>100</v>
@@ -15375,7 +15379,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -15426,16 +15430,16 @@
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="V15" s="1">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X15" s="1">
         <v>0</v>
@@ -15444,10 +15448,10 @@
         <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1">
         <v>0</v>
@@ -15486,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>100</v>
@@ -15500,7 +15504,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -15554,13 +15558,13 @@
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="V16" s="1">
         <v>45</v>
       </c>
       <c r="W16" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="X16" s="1">
         <v>0</v>
@@ -15572,13 +15576,13 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB16" s="1">
         <v>15</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD16" s="1">
         <v>0</v>
@@ -15608,7 +15612,7 @@
         <v>0</v>
       </c>
       <c r="AM16" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="1">
         <v>0</v>
@@ -15679,16 +15683,16 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -15730,10 +15734,10 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="1">
         <v>0</v>
@@ -15807,7 +15811,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -15858,10 +15862,10 @@
         <v>0</v>
       </c>
       <c r="AM18" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN18" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO18" s="1">
         <v>100</v>
@@ -15935,7 +15939,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
@@ -16102,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -16221,10 +16225,10 @@
         <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1">
         <v>0</v>
@@ -16343,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="1">
         <v>0</v>
@@ -16605,7 +16609,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -16730,10 +16734,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="1">
         <v>0</v>
@@ -16858,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="1">
         <v>0</v>
@@ -16986,7 +16990,7 @@
         <v>15</v>
       </c>
       <c r="AN27" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="1">
         <v>100</v>
@@ -17108,7 +17112,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AN28" s="1">
         <v>15</v>
@@ -17233,7 +17237,7 @@
         <v>0</v>
       </c>
       <c r="AM29" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="1">
         <v>15</v>
@@ -17358,7 +17362,7 @@
         <v>0</v>
       </c>
       <c r="AM30" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="1">
         <v>15</v>
@@ -17483,10 +17487,10 @@
         <v>0</v>
       </c>
       <c r="AM31" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO31" s="1">
         <v>100</v>
@@ -18012,7 +18016,7 @@
   <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS26" sqref="AS26"/>
+      <selection activeCell="AR16" sqref="AR16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18160,28 +18164,28 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
@@ -18211,7 +18215,7 @@
         <v>15</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
@@ -18223,31 +18227,31 @@
         <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI2" s="1">
         <v>0</v>
@@ -18282,38 +18286,38 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1">
         <v>30</v>
       </c>
-      <c r="J3" s="1">
-        <v>45</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
@@ -18327,13 +18331,13 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
         <v>15</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V3" s="1">
         <v>0</v>
@@ -18348,13 +18352,13 @@
         <v>15</v>
       </c>
       <c r="Z3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AA3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AB3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AC3" s="1">
         <v>15</v>
@@ -18375,13 +18379,13 @@
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -18407,40 +18411,40 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1">
         <v>15</v>
       </c>
       <c r="H4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -18464,7 +18468,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X4" s="1">
         <v>15</v>
@@ -18485,10 +18489,10 @@
         <v>15</v>
       </c>
       <c r="AD4" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AE4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
         <v>0</v>
@@ -18506,10 +18510,10 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -18535,13 +18539,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -18559,16 +18563,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
@@ -18586,13 +18590,13 @@
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -18613,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AF5" s="1">
         <v>0</v>
@@ -18657,10 +18661,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -18690,7 +18694,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -18708,19 +18712,19 @@
         <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
@@ -18741,7 +18745,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="1">
         <v>0</v>
@@ -18779,7 +18783,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>15</v>
@@ -18815,7 +18819,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -18833,13 +18837,13 @@
         <v>15</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -18901,13 +18905,13 @@
         <v>100</v>
       </c>
       <c r="B8" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -18955,7 +18959,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -19026,10 +19030,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -19065,7 +19069,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -19080,7 +19084,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -19151,10 +19155,10 @@
         <v>100</v>
       </c>
       <c r="B10" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -19190,7 +19194,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -19241,7 +19245,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -19276,11 +19280,11 @@
         <v>100</v>
       </c>
       <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
         <v>30</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
@@ -19315,7 +19319,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
@@ -19330,7 +19334,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -19366,7 +19370,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG11" s="1">
         <v>0</v>
@@ -19401,10 +19405,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -19440,7 +19444,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>0</v>
@@ -19452,13 +19456,13 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -19526,10 +19530,10 @@
         <v>100</v>
       </c>
       <c r="B13" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -19580,10 +19584,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="U13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
@@ -19613,7 +19617,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF13" s="1">
         <v>0</v>
@@ -19640,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>100</v>
@@ -19651,67 +19655,67 @@
         <v>100</v>
       </c>
       <c r="B14" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>15</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>15</v>
+      </c>
+      <c r="U14" s="1">
         <v>30</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>15</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
-        <v>45</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
@@ -19738,7 +19742,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF14" s="1">
         <v>0</v>
@@ -19765,7 +19769,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>100</v>
@@ -19779,7 +19783,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -19830,16 +19834,16 @@
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="V15" s="1">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X15" s="1">
         <v>0</v>
@@ -19848,10 +19852,10 @@
         <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1">
         <v>0</v>
@@ -19890,7 +19894,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>100</v>
@@ -19904,7 +19908,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -19958,13 +19962,13 @@
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="V16" s="1">
         <v>45</v>
       </c>
       <c r="W16" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="X16" s="1">
         <v>0</v>
@@ -19976,13 +19980,13 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB16" s="1">
         <v>15</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD16" s="1">
         <v>0</v>
@@ -20012,7 +20016,7 @@
         <v>0</v>
       </c>
       <c r="AM16" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="1">
         <v>0</v>
@@ -20035,7 +20039,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -20083,16 +20087,16 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -20134,10 +20138,10 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="1">
         <v>0</v>
@@ -20160,7 +20164,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -20211,7 +20215,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -20262,10 +20266,10 @@
         <v>0</v>
       </c>
       <c r="AM18" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN18" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO18" s="1">
         <v>100</v>
@@ -20279,10 +20283,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -20309,10 +20313,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1">
         <v>0</v>
@@ -20339,7 +20343,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
@@ -20404,10 +20408,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -20437,7 +20441,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1">
         <v>0</v>
@@ -20506,7 +20510,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -20529,10 +20533,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -20625,10 +20629,10 @@
         <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1">
         <v>0</v>
@@ -20654,10 +20658,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -20747,7 +20751,7 @@
         <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="1">
         <v>0</v>
@@ -20776,13 +20780,13 @@
         <v>100</v>
       </c>
       <c r="B23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -20901,7 +20905,7 @@
         <v>100</v>
       </c>
       <c r="B24" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
         <v>15</v>
@@ -21009,7 +21013,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -21029,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -21134,10 +21138,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="1">
         <v>0</v>
@@ -21262,7 +21266,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="1">
         <v>0</v>
@@ -21279,7 +21283,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -21390,7 +21394,7 @@
         <v>15</v>
       </c>
       <c r="AN27" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="1">
         <v>100</v>
@@ -21512,7 +21516,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AN28" s="1">
         <v>15</v>
@@ -21637,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="AM29" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="1">
         <v>15</v>
@@ -21762,7 +21766,7 @@
         <v>0</v>
       </c>
       <c r="AM30" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="1">
         <v>15</v>
@@ -21887,10 +21891,10 @@
         <v>0</v>
       </c>
       <c r="AM31" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO31" s="1">
         <v>100</v>
@@ -21901,7 +21905,7 @@
         <v>100</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -22029,13 +22033,13 @@
         <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -22056,16 +22060,16 @@
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
       </c>
       <c r="N33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P33" s="1">
         <v>0</v>
@@ -22160,34 +22164,34 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
       </c>
       <c r="N34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O34" s="1">
         <v>0</v>
@@ -22415,8 +22419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A45F0A2-0993-401D-AF9A-05F1C0AE30F3}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS27" sqref="AS27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:AO35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22564,28 +22568,28 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
@@ -22615,7 +22619,7 @@
         <v>15</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
@@ -22627,31 +22631,31 @@
         <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI2" s="1">
         <v>0</v>
@@ -22686,38 +22690,38 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1">
         <v>30</v>
       </c>
-      <c r="J3" s="1">
-        <v>45</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
@@ -22731,13 +22735,13 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
         <v>15</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V3" s="1">
         <v>0</v>
@@ -22752,13 +22756,13 @@
         <v>15</v>
       </c>
       <c r="Z3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AA3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AB3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AC3" s="1">
         <v>15</v>
@@ -22779,13 +22783,13 @@
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -22811,40 +22815,40 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1">
         <v>15</v>
       </c>
       <c r="H4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -22868,7 +22872,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X4" s="1">
         <v>15</v>
@@ -22889,10 +22893,10 @@
         <v>15</v>
       </c>
       <c r="AD4" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AE4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
         <v>0</v>
@@ -22910,10 +22914,10 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -22939,13 +22943,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -22963,16 +22967,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
@@ -22990,13 +22994,13 @@
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -23017,7 +23021,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AF5" s="1">
         <v>0</v>
@@ -23061,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -23094,7 +23098,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -23112,19 +23116,19 @@
         <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
@@ -23145,7 +23149,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="1">
         <v>0</v>
@@ -23183,7 +23187,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>15</v>
@@ -23219,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -23237,13 +23241,13 @@
         <v>15</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -23305,13 +23309,13 @@
         <v>100</v>
       </c>
       <c r="B8" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -23359,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -23430,10 +23434,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -23469,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -23484,7 +23488,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -23555,10 +23559,10 @@
         <v>100</v>
       </c>
       <c r="B10" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -23594,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -23645,7 +23649,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -23680,11 +23684,11 @@
         <v>100</v>
       </c>
       <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
         <v>30</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
@@ -23719,7 +23723,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
@@ -23734,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -23770,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG11" s="1">
         <v>0</v>
@@ -23805,10 +23809,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -23844,7 +23848,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>0</v>
@@ -23856,13 +23860,13 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -23930,10 +23934,10 @@
         <v>100</v>
       </c>
       <c r="B13" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -23984,10 +23988,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="U13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
@@ -24017,7 +24021,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF13" s="1">
         <v>0</v>
@@ -24044,7 +24048,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>100</v>
@@ -24055,70 +24059,70 @@
         <v>100</v>
       </c>
       <c r="B14" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>15</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>15</v>
+      </c>
+      <c r="U14" s="1">
         <v>30</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>15</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
+      <c r="V14" s="1">
         <v>45</v>
       </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X14" s="1">
         <v>0</v>
@@ -24142,7 +24146,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF14" s="1">
         <v>0</v>
@@ -24169,7 +24173,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>100</v>
@@ -24183,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -24234,16 +24238,16 @@
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="V15" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X15" s="1">
         <v>0</v>
@@ -24252,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1">
         <v>0</v>
@@ -24294,7 +24298,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>100</v>
@@ -24308,7 +24312,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -24362,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="V16" s="1">
         <v>45</v>
       </c>
       <c r="W16" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="X16" s="1">
         <v>0</v>
@@ -24380,13 +24384,13 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB16" s="1">
         <v>15</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD16" s="1">
         <v>0</v>
@@ -24416,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="AM16" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="1">
         <v>0</v>
@@ -24439,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -24487,16 +24491,16 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -24538,10 +24542,10 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="1">
         <v>0</v>
@@ -24564,7 +24568,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -24615,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -24666,10 +24670,10 @@
         <v>0</v>
       </c>
       <c r="AM18" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN18" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO18" s="1">
         <v>100</v>
@@ -24683,10 +24687,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -24713,10 +24717,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1">
         <v>0</v>
@@ -24743,13 +24747,13 @@
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z19" s="1">
         <v>0</v>
@@ -24808,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -24841,7 +24845,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1">
         <v>0</v>
@@ -24910,7 +24914,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -24933,10 +24937,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -24996,10 +25000,10 @@
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z21" s="1">
         <v>0</v>
@@ -25029,10 +25033,10 @@
         <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1">
         <v>0</v>
@@ -25058,10 +25062,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -25121,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
@@ -25151,7 +25155,7 @@
         <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="1">
         <v>0</v>
@@ -25180,13 +25184,13 @@
         <v>100</v>
       </c>
       <c r="B23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -25246,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y23" s="1">
         <v>0</v>
@@ -25305,7 +25309,7 @@
         <v>100</v>
       </c>
       <c r="B24" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
         <v>15</v>
@@ -25413,7 +25417,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -25433,7 +25437,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -25484,7 +25488,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U25" s="1">
         <v>0</v>
@@ -25496,7 +25500,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
@@ -25538,10 +25542,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="1">
         <v>0</v>
@@ -25609,10 +25613,10 @@
         <v>0</v>
       </c>
       <c r="T26" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U26" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V26" s="1">
         <v>0</v>
@@ -25666,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="1">
         <v>0</v>
@@ -25683,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -25737,7 +25741,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V27" s="1">
         <v>0</v>
@@ -25794,7 +25798,7 @@
         <v>15</v>
       </c>
       <c r="AN27" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="1">
         <v>100</v>
@@ -25862,7 +25866,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V28" s="1">
         <v>0</v>
@@ -25916,7 +25920,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AN28" s="1">
         <v>15</v>
@@ -25990,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W29" s="1">
         <v>0</v>
@@ -26041,7 +26045,7 @@
         <v>0</v>
       </c>
       <c r="AM29" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="1">
         <v>15</v>
@@ -26166,7 +26170,7 @@
         <v>0</v>
       </c>
       <c r="AM30" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="1">
         <v>15</v>
@@ -26291,10 +26295,10 @@
         <v>0</v>
       </c>
       <c r="AM31" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO31" s="1">
         <v>100</v>
@@ -26305,7 +26309,7 @@
         <v>100</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -26433,13 +26437,13 @@
         <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -26460,16 +26464,16 @@
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
       </c>
       <c r="N33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P33" s="1">
         <v>0</v>
@@ -26564,34 +26568,34 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
       </c>
       <c r="N34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O34" s="1">
         <v>0</v>
@@ -26820,7 +26824,7 @@
   <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR17" sqref="AR17"/>
+      <selection activeCell="AS26" sqref="AS26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26968,28 +26972,28 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
@@ -27019,7 +27023,7 @@
         <v>15</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
@@ -27031,31 +27035,31 @@
         <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI2" s="1">
         <v>0</v>
@@ -27090,38 +27094,38 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1">
         <v>30</v>
       </c>
-      <c r="J3" s="1">
-        <v>45</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
@@ -27135,13 +27139,13 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
         <v>15</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V3" s="1">
         <v>0</v>
@@ -27156,13 +27160,13 @@
         <v>15</v>
       </c>
       <c r="Z3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AA3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AB3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AC3" s="1">
         <v>15</v>
@@ -27183,13 +27187,13 @@
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
@@ -27215,40 +27219,40 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1">
         <v>15</v>
       </c>
       <c r="H4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -27272,7 +27276,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X4" s="1">
         <v>15</v>
@@ -27293,10 +27297,10 @@
         <v>15</v>
       </c>
       <c r="AD4" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AE4" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
         <v>0</v>
@@ -27314,10 +27318,10 @@
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -27343,13 +27347,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -27367,16 +27371,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
@@ -27394,13 +27398,13 @@
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -27421,7 +27425,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AF5" s="1">
         <v>0</v>
@@ -27465,10 +27469,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -27498,7 +27502,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -27516,19 +27520,19 @@
         <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
@@ -27549,7 +27553,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="1">
         <v>0</v>
@@ -27587,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>15</v>
@@ -27623,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -27641,13 +27645,13 @@
         <v>15</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -27709,13 +27713,13 @@
         <v>100</v>
       </c>
       <c r="B8" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -27763,7 +27767,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -27834,10 +27838,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -27873,7 +27877,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -27888,7 +27892,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -27959,10 +27963,10 @@
         <v>100</v>
       </c>
       <c r="B10" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -27998,7 +28002,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -28049,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
@@ -28084,11 +28088,11 @@
         <v>100</v>
       </c>
       <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
         <v>30</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
@@ -28123,7 +28127,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
@@ -28138,7 +28142,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -28174,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG11" s="1">
         <v>0</v>
@@ -28209,10 +28213,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -28248,7 +28252,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>0</v>
@@ -28260,13 +28264,13 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -28334,10 +28338,10 @@
         <v>100</v>
       </c>
       <c r="B13" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -28388,10 +28392,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="U13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
@@ -28421,7 +28425,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF13" s="1">
         <v>0</v>
@@ -28448,7 +28452,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>100</v>
@@ -28459,70 +28463,70 @@
         <v>100</v>
       </c>
       <c r="B14" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>15</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>15</v>
+      </c>
+      <c r="U14" s="1">
         <v>30</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>15</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
+      <c r="V14" s="1">
         <v>45</v>
       </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X14" s="1">
         <v>0</v>
@@ -28546,7 +28550,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF14" s="1">
         <v>0</v>
@@ -28573,7 +28577,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>100</v>
@@ -28587,7 +28591,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -28638,16 +28642,16 @@
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="V15" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X15" s="1">
         <v>0</v>
@@ -28656,10 +28660,10 @@
         <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1">
         <v>0</v>
@@ -28698,7 +28702,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>100</v>
@@ -28712,7 +28716,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -28766,13 +28770,13 @@
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="V16" s="1">
         <v>45</v>
       </c>
       <c r="W16" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="X16" s="1">
         <v>0</v>
@@ -28784,13 +28788,13 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB16" s="1">
         <v>15</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD16" s="1">
         <v>0</v>
@@ -28820,7 +28824,7 @@
         <v>0</v>
       </c>
       <c r="AM16" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="1">
         <v>0</v>
@@ -28843,7 +28847,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -28891,16 +28895,16 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -28942,10 +28946,10 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="1">
         <v>0</v>
@@ -28968,7 +28972,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -29019,7 +29023,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -29070,10 +29074,10 @@
         <v>0</v>
       </c>
       <c r="AM18" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN18" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO18" s="1">
         <v>100</v>
@@ -29087,10 +29091,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -29117,10 +29121,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1">
         <v>0</v>
@@ -29147,13 +29151,13 @@
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z19" s="1">
         <v>0</v>
@@ -29212,10 +29216,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -29245,7 +29249,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1">
         <v>0</v>
@@ -29314,7 +29318,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>0</v>
@@ -29337,10 +29341,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -29400,10 +29404,10 @@
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z21" s="1">
         <v>0</v>
@@ -29433,10 +29437,10 @@
         <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1">
         <v>0</v>
@@ -29462,10 +29466,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -29525,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
@@ -29555,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="1">
         <v>0</v>
@@ -29584,13 +29588,13 @@
         <v>100</v>
       </c>
       <c r="B23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -29650,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y23" s="1">
         <v>0</v>
@@ -29709,7 +29713,7 @@
         <v>100</v>
       </c>
       <c r="B24" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
         <v>15</v>
@@ -29817,7 +29821,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -29837,7 +29841,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -29888,7 +29892,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U25" s="1">
         <v>0</v>
@@ -29900,7 +29904,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
@@ -29942,10 +29946,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="1">
         <v>0</v>
@@ -30013,10 +30017,10 @@
         <v>0</v>
       </c>
       <c r="T26" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U26" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V26" s="1">
         <v>0</v>
@@ -30070,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="1">
         <v>0</v>
@@ -30087,7 +30091,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -30141,7 +30145,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V27" s="1">
         <v>0</v>
@@ -30198,7 +30202,7 @@
         <v>15</v>
       </c>
       <c r="AN27" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="1">
         <v>100</v>
@@ -30266,7 +30270,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V28" s="1">
         <v>0</v>
@@ -30320,7 +30324,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AN28" s="1">
         <v>15</v>
@@ -30394,7 +30398,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W29" s="1">
         <v>0</v>
@@ -30445,7 +30449,7 @@
         <v>0</v>
       </c>
       <c r="AM29" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="1">
         <v>15</v>
@@ -30555,7 +30559,7 @@
         <v>0</v>
       </c>
       <c r="AH30" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="1">
         <v>0</v>
@@ -30570,7 +30574,7 @@
         <v>0</v>
       </c>
       <c r="AM30" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="1">
         <v>15</v>
@@ -30683,7 +30687,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="1">
         <v>0</v>
@@ -30695,10 +30699,10 @@
         <v>0</v>
       </c>
       <c r="AM31" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO31" s="1">
         <v>100</v>
@@ -30709,7 +30713,7 @@
         <v>100</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -30837,13 +30841,13 @@
         <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -30864,16 +30868,16 @@
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
       </c>
       <c r="N33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O33" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P33" s="1">
         <v>0</v>
@@ -30968,34 +30972,34 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
       </c>
       <c r="N34" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O34" s="1">
         <v>0</v>
